--- a/baseline_model/data/demand_6.xlsx
+++ b/baseline_model/data/demand_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC39D9B-A29C-44FB-9380-0CC084477322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FCBBE9-C65F-41E5-8CCC-64A8C972FF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>State</t>
   </si>
@@ -92,13 +92,16 @@
   </si>
   <si>
     <t>s10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,22 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,44 +480,289 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>1079</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1135</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1145</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1134</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1194</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1150</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1081</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1098</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1179</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1157</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1009</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1023</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1143</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1098</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1146</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1199</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1139</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1124</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1076</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1173</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1125</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1146</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1140</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1193</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1068</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1168</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1085</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1102</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1009</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1084</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1056</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1013</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1042</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1188</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1056</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1007</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1160</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1108</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1185</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1153</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1178</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1088</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>1151</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1039</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1032</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1134</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1175</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1122</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1081</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1119</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1135</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1066</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1041</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1127</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1142</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1027</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1198</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1182</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
